--- a/会计/Partnership Account (1) - Financial Statement/Practice 5.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/Practice 5.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DF5D40-B366-ED43-B99B-474B190A58BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF4DA5B-7DB5-8042-B778-AB78ED185F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{2E54A65C-5933-3E46-AE28-D1574F53BC79}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{2E54A65C-5933-3E46-AE28-D1574F53BC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Inome Statement" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Current" sheetId="2" r:id="rId2"/>
+    <sheet name="SOFP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Jia and Kai</t>
   </si>
@@ -139,6 +140,78 @@
   </si>
   <si>
     <t>Profit and Loss Appropriations</t>
+  </si>
+  <si>
+    <t>Jia And Kai</t>
+  </si>
+  <si>
+    <t>Statement of Financial Position</t>
+  </si>
+  <si>
+    <t>As At 30 September Year 5</t>
+  </si>
+  <si>
+    <t>Non-current Assets</t>
+  </si>
+  <si>
+    <t>Premises</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Carrying Amount</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Cash At Bank</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Non-current Liabilities</t>
+  </si>
+  <si>
+    <t>Loan from Kai</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Net Assets</t>
+  </si>
+  <si>
+    <t>Owners' Equity</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
   </si>
 </sst>
 </file>
@@ -615,181 +688,193 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,552 +1193,552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA49F5D8-1EF2-CF4C-B538-186876430D51}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="40.1640625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>56660</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>17600</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>800</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="7">
         <v>1200</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f>-SUM(C8:C10)</f>
         <v>-19600</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="14">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11">
         <f>D6+D10</f>
         <v>37060</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>9000</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>2250</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>1500</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <f>B16+B17</f>
         <v>3750</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <f>-C14-C17</f>
         <v>-12750</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="12">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9">
         <f>D11+D17</f>
         <v>24310</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>14586</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="9">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7">
         <v>9724</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <f>C20+C21</f>
         <v>24310</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="2:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1661,16 +1746,21 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53BF9C-B8C4-8A48-9BA6-8E59BCF6A7F6}">
-  <dimension ref="A1:H88"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,265 +1772,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="25">
         <v>37165</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1950</v>
+      </c>
+      <c r="E6" s="28">
+        <v>37165</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="29">
         <v>2550</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="H6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="33">
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>11202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="26">
+        <f>G6+G11+G13+G12</f>
+        <v>20886</v>
+      </c>
+      <c r="D8" s="27">
+        <f>SUM(H9:H13)-D6</f>
+        <v>10074</v>
+      </c>
+      <c r="E8" s="28">
+        <v>11202</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="30">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2250</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="35">
+        <v>14586</v>
+      </c>
+      <c r="H13" s="36">
+        <v>9724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="48">
+        <f>C8</f>
+        <v>20886</v>
+      </c>
+      <c r="D14" s="49">
+        <f>D6+D8</f>
+        <v>12024</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="50">
+        <f>SUM(G6:G13)</f>
+        <v>20886</v>
+      </c>
+      <c r="H14" s="51">
+        <f>SUM(H9:H13)</f>
+        <v>12024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="28">
         <v>37165</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="35">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="31">
-        <f>SUM(G11:G13)-C6</f>
-        <v>21786</v>
-      </c>
-      <c r="D8" s="32">
-        <f>SUM(H6:H13)</f>
-        <v>13974</v>
-      </c>
-      <c r="E8" s="33">
-        <v>11658</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="35">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="36">
-        <v>7500</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="36">
-        <v>2250</v>
-      </c>
-      <c r="H12" s="37">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="40">
-        <v>14586</v>
-      </c>
-      <c r="H13" s="41">
-        <v>9724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G16" s="31">
+        <v>20886</v>
+      </c>
+      <c r="H16" s="32">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1997,6 +2120,7 @@
     <row r="86" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="87" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="88" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -2004,5 +2128,619 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A6A52C-7851-074A-84E3-0108E255EAC9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="158" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" style="4" customWidth="1"/>
+    <col min="2" max="4" width="12.83203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3">
+        <v>56600</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7">
+        <v>25000</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57">
+        <f>B8+B9</f>
+        <v>81600</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <f>B10</f>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>25500</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>3260</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="D14" s="7">
+        <f>SUM(C12:C14)</f>
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <f>D10+D14</f>
+        <v>124360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7">
+        <v>8400</v>
+      </c>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7">
+        <f>-(C17+C19)</f>
+        <v>-18400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="57">
+        <f>D15+D20</f>
+        <v>105960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C24+C25</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <v>20886</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7">
+        <v>10074</v>
+      </c>
+      <c r="D28" s="7">
+        <f>C27+C28</f>
+        <v>30960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="57">
+        <f>D25+D28</f>
+        <v>105960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="2:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>